--- a/costi_categorie.xlsx
+++ b/costi_categorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancamediolanum-my.sharepoint.com/personal/william_marzo_mediolanum_it/Documents/Desktop/Progetti GitHub/Dashboard_ER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1813A2-C254-434D-B346-95367F3C9FD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A221C98-461A-44E8-AB35-CD9816150CBC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>EAA OE Global Large-Cap Blend Equity</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>Nome Universo</t>
+  </si>
+  <si>
+    <t>CODICE CAT</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1381,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625606CA-20F6-47E9-9D70-E818A32B4711}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1395,7 +1400,9 @@
       <c r="B1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="D1" s="6" t="s">
         <v>54</v>
       </c>

--- a/costi_categorie.xlsx
+++ b/costi_categorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancamediolanum-my.sharepoint.com/personal/william_marzo_mediolanum_it/Documents/Desktop/Progetti GitHub/Dashboard_ER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC1813A2-C254-434D-B346-95367F3C9FD2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70825CC3-3ECC-46D9-8561-8EF28E06581D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A221C98-461A-44E8-AB35-CD9816150CBC}"/>
   </bookViews>
@@ -209,7 +209,7 @@
     <t>Nome Universo</t>
   </si>
   <si>
-    <t>CODICE CAT</t>
+    <t>codice_cat</t>
   </si>
 </sst>
 </file>

--- a/costi_categorie.xlsx
+++ b/costi_categorie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bancamediolanum-my.sharepoint.com/personal/william_marzo_mediolanum_it/Documents/Desktop/Progetti GitHub/Dashboard_ER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70825CC3-3ECC-46D9-8561-8EF28E06581D}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{AA43045C-AF82-49D6-85D8-F32AFC3E4A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E19FA84F-A17D-4F28-A8DF-3A2CD039580B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A221C98-461A-44E8-AB35-CD9816150CBC}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'31.10.2023'!$A$1:$D$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>EAA OE Global Large-Cap Blend Equity</t>
   </si>
@@ -210,13 +213,16 @@
   </si>
   <si>
     <t>codice_cat</t>
+  </si>
+  <si>
+    <t>Costo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +244,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -266,10 +279,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -283,9 +297,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1076,7 +1092,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1379,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625606CA-20F6-47E9-9D70-E818A32B4711}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1391,9 +1407,10 @@
     <col min="2" max="2" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="55.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1406,269 +1423,336 @@
       <c r="D1" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="str">
         <f>SUBSTITUTE(A2,"EAA OE ","")</f>
-        <v>Global Large-Cap Blend Equity</v>
+        <v>Asia Allocation</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B2,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000555</v>
+        <v>EUCA000559</v>
       </c>
       <c r="D2" s="1">
-        <v>1.0269680000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6909799999999999</v>
+      </c>
+      <c r="E2" s="7">
+        <f>D2/100</f>
+        <v>1.6909799999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f t="shared" ref="B3:B54" si="0">SUBSTITUTE(A3,"EAA OE ","")</f>
-        <v>EUR Moderate Allocation - Global</v>
+        <f>SUBSTITUTE(A3,"EAA OE ","")</f>
+        <v>EUR Flexible Allocation - Global</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B3,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000565</v>
+        <v>EUCA000739</v>
       </c>
       <c r="D3" s="1">
-        <v>1.4695050000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.667891</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3:E54" si="0">D3/100</f>
+        <v>1.6678910000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Bond - EUR Biased</v>
+        <f>SUBSTITUTE(A4,"EAA OE ","")</f>
+        <v>EUR Aggressive Allocation - Global</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B4,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000588</v>
+        <v>EUCA000563</v>
       </c>
       <c r="D4" s="1">
-        <v>0.94754300000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6533679999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6533679999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Diversified Bond - Short Term</v>
+        <f>SUBSTITUTE(A5,"EAA OE ","")</f>
+        <v>Italy Equity</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B5,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000593</v>
+        <v>EUCA000640</v>
       </c>
       <c r="D5" s="1">
-        <v>0.57041500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.629505</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6295049999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Aggressive Allocation - Global</v>
+        <f>SUBSTITUTE(A6,"EAA OE ","")</f>
+        <v>Global Emerging Markets Allocation</v>
       </c>
       <c r="C6" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B6,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000563</v>
+        <v>EUCA000741</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6533679999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.6179669999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.617967E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Flexible Bond</v>
-      </c>
-      <c r="C7" s="1" t="str">
+        <f>SUBSTITUTE(A7,"EAA OE ","")</f>
+        <v>Other Allocation</v>
+      </c>
+      <c r="C7" s="1" t="e">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B7,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000754</v>
+        <v>#N/A</v>
       </c>
       <c r="D7" s="1">
-        <v>1.0056849999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5705420000000001</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5705420000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Bond</v>
-      </c>
-      <c r="C8" s="1" t="str">
+        <f>SUBSTITUTE(A8,"EAA OE ","")</f>
+        <v>Alternative Other</v>
+      </c>
+      <c r="C8" s="1" t="e">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B8,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000759</v>
+        <v>#N/A</v>
       </c>
       <c r="D8" s="1">
-        <v>0.72490200000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.536222</v>
+      </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5362219999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Cautious Allocation - Global</v>
+        <f>SUBSTITUTE(A9,"EAA OE ","")</f>
+        <v>India Equity</v>
       </c>
       <c r="C9" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B9,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000564</v>
+        <v>EUCA000520</v>
       </c>
       <c r="D9" s="1">
-        <v>1.2702070000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5330619999999999</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.533062E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Emerging Markets Allocation</v>
+        <f>SUBSTITUTE(A10,"EAA OE ","")</f>
+        <v>Spain Equity</v>
       </c>
       <c r="C10" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B10,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000741</v>
+        <v>EUCA000643</v>
       </c>
       <c r="D10" s="1">
-        <v>1.6179669999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.522926</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.522926E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Europe Large-Cap Blend Equity</v>
+        <f>SUBSTITUTE(A11,"EAA OE ","")</f>
+        <v>EUR Moderate Allocation - Global</v>
       </c>
       <c r="C11" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B11,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000511</v>
+        <v>EUCA000565</v>
       </c>
       <c r="D11" s="1">
-        <v>1.11507</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4695050000000001</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4695050000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Emerging Markets Bond - EUR Biased</v>
+        <f>SUBSTITUTE(A12,"EAA OE ","")</f>
+        <v>Europe Mid-Cap Equity</v>
       </c>
       <c r="C12" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B12,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000764</v>
+        <v>EUCA000850</v>
       </c>
       <c r="D12" s="1">
-        <v>1.027136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4542269999999999</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.454227E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Equity</v>
-      </c>
-      <c r="C13" s="1" t="e">
+        <f>SUBSTITUTE(A13,"EAA OE ","")</f>
+        <v>China Equity</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B13,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>#N/A</v>
+        <v>EUCA000504</v>
       </c>
       <c r="D13" s="1">
-        <v>1.3231040000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4270149999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4270149999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Flexible Allocation - Global</v>
+        <f>SUBSTITUTE(A14,"EAA OE ","")</f>
+        <v>USD Flexible Allocation</v>
       </c>
       <c r="C14" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B14,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000739</v>
+        <v>EUCA000746</v>
       </c>
       <c r="D14" s="1">
-        <v>1.667891</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.4214290000000001</v>
+      </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4214290000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="1" t="str">
+        <f>SUBSTITUTE(A15,"EAA OE ","")</f>
+        <v>Sector Equity Agriculture</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B15,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
+        <v>EUCA000827</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.3476330000000001</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3476330000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B16" s="1" t="str">
+        <f>SUBSTITUTE(A16,"EAA OE ","")</f>
         <v>Sector Equity Consumer Goods &amp; Services</v>
       </c>
-      <c r="C15" s="1" t="e">
-        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B15,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
+      <c r="C16" s="1" t="e">
+        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B16,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>1.3459700000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Asia-Pacific Equity</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B16,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000502</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.3053110000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3459700000000002E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Infrastructure</v>
-      </c>
-      <c r="C17" s="1" t="str">
+        <f>SUBSTITUTE(A17,"EAA OE ","")</f>
+        <v>Other Equity</v>
+      </c>
+      <c r="C17" s="1" t="e">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B17,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000707</v>
+        <v>#N/A</v>
       </c>
       <c r="D17" s="1">
-        <v>1.2186889999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3231040000000001</v>
+      </c>
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3231040000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>SUBSTITUTE(A18,"EAA OE ","")</f>
         <v>Convertible Bond - Global</v>
       </c>
       <c r="C18" s="1" t="str">
@@ -1678,584 +1762,737 @@
       <c r="D18" s="1">
         <v>1.3130599999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3130599999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Convertible Bond - Global, EUR Hedged</v>
+        <f>SUBSTITUTE(A19,"EAA OE ","")</f>
+        <v>Asia-Pacific Equity</v>
       </c>
       <c r="C19" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B19,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000750</v>
+        <v>EUCA000502</v>
       </c>
       <c r="D19" s="1">
-        <v>1.1548</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.3053110000000001</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3053110000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Equity Income</v>
+        <f>SUBSTITUTE(A20,"EAA OE ","")</f>
+        <v>Sector Equity Ecology</v>
       </c>
       <c r="C20" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B20,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000876</v>
+        <v>EUCA000706</v>
       </c>
       <c r="D20" s="1">
-        <v>1.178749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2966009999999999</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2966009999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Cautious Allocation</v>
+        <f>SUBSTITUTE(A21,"EAA OE ","")</f>
+        <v>Sector Equity Technology</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B21,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000863</v>
+        <v>EUCA000542</v>
       </c>
       <c r="D21" s="1">
-        <v>1.2108920000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2961149999999999</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2961149999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR High Yield Bond</v>
+        <f>SUBSTITUTE(A22,"EAA OE ","")</f>
+        <v>Sector Equity Energy</v>
       </c>
       <c r="C22" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B22,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000590</v>
+        <v>EUCA000535</v>
       </c>
       <c r="D22" s="1">
-        <v>0.94052400000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.274605</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.274605E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Spain Equity</v>
+        <f>SUBSTITUTE(A23,"EAA OE ","")</f>
+        <v>Sector Equity Alternative Energy</v>
       </c>
       <c r="C23" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B23,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000643</v>
+        <v>EUCA000705</v>
       </c>
       <c r="D23" s="1">
-        <v>1.522926</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.273013</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2730129999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Italy Equity</v>
+        <f>SUBSTITUTE(A24,"EAA OE ","")</f>
+        <v>EUR Cautious Allocation - Global</v>
       </c>
       <c r="C24" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B24,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000640</v>
+        <v>EUCA000564</v>
       </c>
       <c r="D24" s="1">
-        <v>1.629505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2702070000000001</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2702070000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Bond</v>
-      </c>
-      <c r="C25" s="1" t="e">
+        <f>SUBSTITUTE(A25,"EAA OE ","")</f>
+        <v>Sector Equity Infrastructure</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B25,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>#N/A</v>
+        <v>EUCA000707</v>
       </c>
       <c r="D25" s="1">
-        <v>0.91756199999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2186889999999999</v>
+      </c>
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2186889999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Other Allocation</v>
-      </c>
-      <c r="C26" s="1" t="e">
+        <f>SUBSTITUTE(A26,"EAA OE ","")</f>
+        <v>Global Large-Cap Growth Equity</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B26,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>#N/A</v>
+        <v>EUCA000556</v>
       </c>
       <c r="D26" s="1">
-        <v>1.5705420000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2119580000000001</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2119580000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Property - Indirect Global</v>
+        <f>SUBSTITUTE(A27,"EAA OE ","")</f>
+        <v>Germany Equity</v>
       </c>
       <c r="C27" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B27,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000541</v>
+        <v>EUCA000638</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0268600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2116020000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>1.211602E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Money Market</v>
+        <f>SUBSTITUTE(A28,"EAA OE ","")</f>
+        <v>EUR Cautious Allocation</v>
       </c>
       <c r="C28" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B28,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000591</v>
+        <v>EUCA000863</v>
       </c>
       <c r="D28" s="1">
-        <v>0.228547</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.2108920000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>1.210892E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Alternative Other</v>
-      </c>
-      <c r="C29" s="1" t="e">
+        <f>SUBSTITUTE(A29,"EAA OE ","")</f>
+        <v>Global Equity Income</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B29,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>#N/A</v>
+        <v>EUCA000876</v>
       </c>
       <c r="D29" s="1">
-        <v>1.536222</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.178749</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1787490000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>USD Flexible Allocation</v>
+        <f>SUBSTITUTE(A30,"EAA OE ","")</f>
+        <v>Convertible Bond - Global, EUR Hedged</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B30,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000746</v>
+        <v>EUCA000750</v>
       </c>
       <c r="D30" s="1">
-        <v>1.4214290000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1548</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1548000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Asia Allocation</v>
+        <f>SUBSTITUTE(A31,"EAA OE ","")</f>
+        <v>Sector Equity Healthcare</v>
       </c>
       <c r="C31" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B31,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000559</v>
+        <v>EUCA000537</v>
       </c>
       <c r="D31" s="1">
-        <v>1.6909799999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.145626</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1456260000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Large-Cap Value Equity</v>
+        <f>SUBSTITUTE(A32,"EAA OE ","")</f>
+        <v>Global Emerging Markets Equity</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B32,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000557</v>
+        <v>EUCA000507</v>
       </c>
       <c r="D32" s="1">
-        <v>1.1358459999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1389320000000001</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1389320000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Large-Cap Growth Equity</v>
+        <f>SUBSTITUTE(A33,"EAA OE ","")</f>
+        <v>Global Large-Cap Value Equity</v>
       </c>
       <c r="C33" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B33,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000556</v>
+        <v>EUCA000557</v>
       </c>
       <c r="D33" s="1">
-        <v>1.2119580000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.1358459999999999</v>
+      </c>
+      <c r="E33" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1358459999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>China Equity</v>
+        <f>SUBSTITUTE(A34,"EAA OE ","")</f>
+        <v>Europe Large-Cap Blend Equity</v>
       </c>
       <c r="C34" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B34,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000504</v>
+        <v>EUCA000511</v>
       </c>
       <c r="D34" s="1">
-        <v>1.4270149999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.11507</v>
+      </c>
+      <c r="E34" s="7">
+        <f t="shared" si="0"/>
+        <v>1.11507E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Europe Mid-Cap Equity</v>
+        <f>SUBSTITUTE(A35,"EAA OE ","")</f>
+        <v>Global Emerging Markets Bond</v>
       </c>
       <c r="C35" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B35,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000850</v>
+        <v>EUCA000586</v>
       </c>
       <c r="D35" s="1">
-        <v>1.4542269999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0361689999999999</v>
+      </c>
+      <c r="E35" s="7">
+        <f t="shared" si="0"/>
+        <v>1.036169E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Emerging Markets Bond</v>
+        <f>SUBSTITUTE(A36,"EAA OE ","")</f>
+        <v>Global Emerging Markets Bond - EUR Biased</v>
       </c>
       <c r="C36" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B36,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000586</v>
+        <v>EUCA000764</v>
       </c>
       <c r="D36" s="1">
-        <v>1.0361689999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.027136</v>
+      </c>
+      <c r="E36" s="7">
+        <f t="shared" si="0"/>
+        <v>1.027136E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Ecology</v>
+        <f>SUBSTITUTE(A37,"EAA OE ","")</f>
+        <v>Global Large-Cap Blend Equity</v>
       </c>
       <c r="C37" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B37,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000706</v>
+        <v>EUCA000555</v>
       </c>
       <c r="D37" s="1">
-        <v>1.2966009999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0269680000000001</v>
+      </c>
+      <c r="E37" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0269680000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Alternative Energy</v>
+        <f>SUBSTITUTE(A38,"EAA OE ","")</f>
+        <v>Property - Indirect Global</v>
       </c>
       <c r="C38" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B38,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000705</v>
+        <v>EUCA000541</v>
       </c>
       <c r="D38" s="1">
-        <v>1.273013</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0268600000000001</v>
+      </c>
+      <c r="E38" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0268600000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Agriculture</v>
+        <f>SUBSTITUTE(A39,"EAA OE ","")</f>
+        <v>EUR Flexible Bond</v>
       </c>
       <c r="C39" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B39,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000827</v>
+        <v>EUCA000754</v>
       </c>
       <c r="D39" s="1">
-        <v>1.3476330000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.0056849999999999</v>
+      </c>
+      <c r="E39" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0056849999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>India Equity</v>
+        <f>SUBSTITUTE(A40,"EAA OE ","")</f>
+        <v>Global High Yield Bond</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B40,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000520</v>
+        <v>EUCA000766</v>
       </c>
       <c r="D40" s="1">
-        <v>1.5330619999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.98776699999999995</v>
+      </c>
+      <c r="E40" s="7">
+        <f t="shared" si="0"/>
+        <v>9.8776699999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>US Large-Cap Blend Equity</v>
+        <f>SUBSTITUTE(A41,"EAA OE ","")</f>
+        <v>Global High Yield Bond - EUR Hedged</v>
       </c>
       <c r="C41" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B41,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000526</v>
+        <v>EUCA000854</v>
       </c>
       <c r="D41" s="1">
-        <v>0.87637299999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.95121</v>
+      </c>
+      <c r="E41" s="7">
+        <f t="shared" si="0"/>
+        <v>9.5121000000000008E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Emerging Markets Equity</v>
+        <f>SUBSTITUTE(A42,"EAA OE ","")</f>
+        <v>Global Bond - EUR Biased</v>
       </c>
       <c r="C42" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B42,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000507</v>
+        <v>EUCA000588</v>
       </c>
       <c r="D42" s="1">
-        <v>1.1389320000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.94754300000000002</v>
+      </c>
+      <c r="E42" s="7">
+        <f t="shared" si="0"/>
+        <v>9.47543E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Government Bond - Short Term</v>
+        <f>SUBSTITUTE(A43,"EAA OE ","")</f>
+        <v>EUR High Yield Bond</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B43,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000837</v>
+        <v>EUCA000590</v>
       </c>
       <c r="D43" s="1">
-        <v>0.40679500000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.94052400000000003</v>
+      </c>
+      <c r="E43" s="7">
+        <f t="shared" si="0"/>
+        <v>9.4052400000000005E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global Bond - EUR Hedged</v>
-      </c>
-      <c r="C44" s="1" t="str">
+        <f>SUBSTITUTE(A44,"EAA OE ","")</f>
+        <v>Other Bond</v>
+      </c>
+      <c r="C44" s="1" t="e">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B44,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000624</v>
+        <v>#N/A</v>
       </c>
       <c r="D44" s="1">
-        <v>0.67369999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.91756199999999999</v>
+      </c>
+      <c r="E44" s="7">
+        <f t="shared" si="0"/>
+        <v>9.1756200000000007E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Government Bond</v>
+        <f>SUBSTITUTE(A45,"EAA OE ","")</f>
+        <v>Sector Equity Industrial Materials</v>
       </c>
       <c r="C45" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B45,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000589</v>
+        <v>EUCA000538</v>
       </c>
       <c r="D45" s="1">
-        <v>0.46851199999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.88480800000000004</v>
+      </c>
+      <c r="E45" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8480800000000012E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>EUR Ultra Short-Term Bond</v>
+        <f>SUBSTITUTE(A46,"EAA OE ","")</f>
+        <v>US Large-Cap Blend Equity</v>
       </c>
       <c r="C46" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B46,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000592</v>
+        <v>EUCA000526</v>
       </c>
       <c r="D46" s="1">
-        <v>0.32339299999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.87637299999999996</v>
+      </c>
+      <c r="E46" s="7">
+        <f t="shared" si="0"/>
+        <v>8.7637299999999991E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Germany Equity</v>
+        <f>SUBSTITUTE(A47,"EAA OE ","")</f>
+        <v>Global Bond</v>
       </c>
       <c r="C47" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B47,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000638</v>
+        <v>EUCA000759</v>
       </c>
       <c r="D47" s="1">
-        <v>1.2116020000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.72490200000000005</v>
+      </c>
+      <c r="E47" s="7">
+        <f t="shared" si="0"/>
+        <v>7.2490200000000001E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Energy</v>
+        <f>SUBSTITUTE(A48,"EAA OE ","")</f>
+        <v>Global Bond - EUR Hedged</v>
       </c>
       <c r="C48" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B48,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000535</v>
+        <v>EUCA000624</v>
       </c>
       <c r="D48" s="1">
-        <v>1.274605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.67369999999999997</v>
+      </c>
+      <c r="E48" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7369999999999999E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Industrial Materials</v>
+        <f>SUBSTITUTE(A49,"EAA OE ","")</f>
+        <v>EUR Diversified Bond - Short Term</v>
       </c>
       <c r="C49" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B49,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000538</v>
+        <v>EUCA000593</v>
       </c>
       <c r="D49" s="1">
-        <v>0.88480800000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.57041500000000001</v>
+      </c>
+      <c r="E49" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7041499999999998E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Healthcare</v>
+        <f>SUBSTITUTE(A50,"EAA OE ","")</f>
+        <v>EUR Government Bond</v>
       </c>
       <c r="C50" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B50,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000537</v>
+        <v>EUCA000589</v>
       </c>
       <c r="D50" s="1">
-        <v>1.145626</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.46851199999999998</v>
+      </c>
+      <c r="E50" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6851200000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Sector Equity Technology</v>
+        <f>SUBSTITUTE(A51,"EAA OE ","")</f>
+        <v>EUR Government Bond - Short Term</v>
       </c>
       <c r="C51" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B51,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000542</v>
+        <v>EUCA000837</v>
       </c>
       <c r="D51" s="1">
-        <v>1.2961149999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.40679500000000002</v>
+      </c>
+      <c r="E51" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0679499999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="1" t="str">
+        <f>SUBSTITUTE(A52,"EAA OE ","")</f>
+        <v>EUR Ultra Short-Term Bond</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B52,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
+        <v>EUCA000592</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.32339299999999999</v>
+      </c>
+      <c r="E52" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2339299999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="B53" s="1" t="str">
+        <f>SUBSTITUTE(A53,"EAA OE ","")</f>
         <v>Money Market - Other</v>
       </c>
-      <c r="C52" s="1" t="e">
-        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B52,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
+      <c r="C53" s="1" t="e">
+        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B53,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
         <v>#N/A</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D53" s="1">
         <v>0.31715700000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global High Yield Bond</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B53,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000766</v>
-      </c>
-      <c r="D53" s="1">
-        <v>0.98776699999999995</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1715700000000003E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Global High Yield Bond - EUR Hedged</v>
+        <f>SUBSTITUTE(A54,"EAA OE ","")</f>
+        <v>EUR Money Market</v>
       </c>
       <c r="C54" s="1" t="str">
         <f>INDEX('[1]Cat MStar utilizzate'!$1:$1,MATCH(B54,'[1]Cat MStar utilizzate'!$3:$3,0))</f>
-        <v>EUCA000854</v>
+        <v>EUCA000591</v>
       </c>
       <c r="D54" s="1">
-        <v>0.95121</v>
+        <v>0.228547</v>
+      </c>
+      <c r="E54" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2854699999999999E-3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D54" xr:uid="{625606CA-20F6-47E9-9D70-E818A32B4711}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D54">
+      <sortCondition descending="1" ref="D1:D54"/>
+    </sortState>
+  </autoFilter>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
